--- a/data/financial_statements/soci/GD.xlsx
+++ b/data/financial_statements/soci/GD.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,967 +599,985 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>10851000000</v>
+      </c>
+      <c r="C2">
         <v>9975000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>9189000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9392000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10292000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9568000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9220000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9389000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10481000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9431000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9264000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8749000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10773000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>9761000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9555000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9261000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>10378000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>9094000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>9186000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7535000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>8277000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>7580000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7675000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7441000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7654000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>7657000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>7774000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>7476000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>8121000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>7994000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>7882000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>7784000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>8362000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>7751000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>7474000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>7265000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7957000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>7735000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>7834000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>7404000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0543</v>
+      </c>
+      <c r="C3">
         <v>0.0425</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.0034</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0003</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.018</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0145</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0047</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0732</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0271</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0338</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0305</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0553</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0381</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0733</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0402</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.2291</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2538</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1997</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1969</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0126</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0814</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-0.0101</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0127</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0047</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0575</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0422</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0137</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0396</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0288</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0314</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0546</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.07140000000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0509</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0021</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.046</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0188</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0529</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0251</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0111</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0231</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>9624000000</v>
+      </c>
+      <c r="C4">
         <v>8310000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7597000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7858000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8526000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7938000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7705000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7892000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8607000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7847000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7856000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7290000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8888000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7973000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7869000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>7633000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8653000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>7407000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7486000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5990000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>6680000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6014000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>6114000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5923000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>6372000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>6171000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>6262000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>6091000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>6477000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>6484000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>6334000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>6254000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6766000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>6274000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6039000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5900000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6516000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>6277000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>6359000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>6050000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1227000000</v>
+      </c>
+      <c r="C5">
         <v>1665000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1592000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1534000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1766000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1630000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1515000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1497000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1874000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1584000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1408000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1459000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1885000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1788000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1686000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1628000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1725000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1687000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1700000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1545000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1597000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1566000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1561000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1518000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1282000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1486000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1512000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1385000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1644000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1510000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1548000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1530000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1596000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1477000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1435000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1365000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1441000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1458000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1475000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1354000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>567000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>614000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>626000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>580000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>550000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>556000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>559000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>581000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>512000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>574000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>525000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>635000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>572000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>596000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>614000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>562000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>552000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>612000000</v>
-      </c>
-      <c r="T6">
-        <v>537000000</v>
       </c>
       <c r="U6">
         <v>537000000</v>
       </c>
       <c r="V6">
+        <v>537000000</v>
+      </c>
+      <c r="W6">
         <v>503000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>494000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>472000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>504000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>471000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>485000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>461000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>491000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>476000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>467000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>503000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>529000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>478000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>486000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>491000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>521000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>497000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>514000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>507000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1227000000</v>
+      </c>
+      <c r="C7">
         <v>1098000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>978000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>908000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1186000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1080000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>959000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>938000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1293000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1072000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>834000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>934000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1250000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1216000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1090000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1014000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1163000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1135000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1088000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1008000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1060000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1063000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1067000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1046000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>778000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1015000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1027000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>924000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1153000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1034000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1081000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1027000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1067000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>999000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>949000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>874000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>920000000</v>
-      </c>
-      <c r="AL7">
-        <v>961000000</v>
       </c>
       <c r="AM7">
         <v>961000000</v>
       </c>
       <c r="AN7">
+        <v>961000000</v>
+      </c>
+      <c r="AO7">
         <v>847000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>86000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>95000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>98000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>93000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>99000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>109000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>123000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>120000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>118000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>132000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>107000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>110000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>85000000</v>
+      </c>
+      <c r="C9">
         <v>86000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>95000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>98000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>93000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>99000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>109000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>123000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>120000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>118000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>132000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>107000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>110000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>114000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>119000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>117000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>112000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>114000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>103000000</v>
-      </c>
-      <c r="T9">
-        <v>27000000</v>
       </c>
       <c r="U9">
         <v>27000000</v>
@@ -1454,13 +1586,13 @@
         <v>27000000</v>
       </c>
       <c r="W9">
+        <v>27000000</v>
+      </c>
+      <c r="X9">
         <v>24000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>25000000</v>
-      </c>
-      <c r="Y9">
-        <v>23000000</v>
       </c>
       <c r="Z9">
         <v>23000000</v>
@@ -1469,3078 +1601,3141 @@
         <v>23000000</v>
       </c>
       <c r="AB9">
+        <v>23000000</v>
+      </c>
+      <c r="AC9">
         <v>22000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>19000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>23000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>20000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>21000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>19000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>21000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>24000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>22000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>23000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>22000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>18000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>23000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-16000000</v>
+      </c>
+      <c r="C10">
         <v>-45000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-55000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-59000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-54000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-65000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-78000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-93000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-108000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-94000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-107000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-86000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-36000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-126000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-107000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-99000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-31000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-112000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-118000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-48000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-52000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-36000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-35000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-36000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-33000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-21000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-22000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-12000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-17000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-21000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-20000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-18000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-22000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-20000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-24000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-21000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-19000000</v>
-      </c>
-      <c r="AL10">
-        <v>-18000000</v>
       </c>
       <c r="AM10">
         <v>-18000000</v>
       </c>
       <c r="AN10">
+        <v>-18000000</v>
+      </c>
+      <c r="AO10">
         <v>-23000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1211000000</v>
+      </c>
+      <c r="C11">
         <v>1053000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>923000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>849000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1132000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1015000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>881000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>845000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1185000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>978000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>727000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>848000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1214000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1090000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>983000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>915000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1132000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1023000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>970000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>960000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1008000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1027000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1032000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1010000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>745000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>994000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1005000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>912000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1136000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1013000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1061000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1009000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1045000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>979000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>925000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>853000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>901000000</v>
-      </c>
-      <c r="AL11">
-        <v>943000000</v>
       </c>
       <c r="AM11">
         <v>943000000</v>
       </c>
       <c r="AN11">
+        <v>943000000</v>
+      </c>
+      <c r="AO11">
         <v>824000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>219000000</v>
+      </c>
+      <c r="C12">
         <v>151000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>157000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>119000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>180000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>155000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>144000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>137000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>183000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>144000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>102000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>142000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>194000000</v>
-      </c>
-      <c r="N12">
-        <v>177000000</v>
       </c>
       <c r="O12">
         <v>177000000</v>
       </c>
       <c r="P12">
+        <v>177000000</v>
+      </c>
+      <c r="Q12">
         <v>170000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>223000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>159000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>184000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>161000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>372000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>263000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>283000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>247000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>165000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>263000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>291000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>258000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>301000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>280000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>309000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>293000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>308000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>285000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>279000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>257000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>278000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>291000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>303000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>253000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>992000000</v>
+      </c>
+      <c r="C13">
         <v>902000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>766000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>730000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>952000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>860000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>737000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>708000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1002000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>834000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>625000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>706000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1020000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>913000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>806000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>745000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>909000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>864000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>786000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>799000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>636000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>764000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>749000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>763000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>580000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>731000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>714000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>654000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>835000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>733000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>752000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>716000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>737000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>694000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>646000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>596000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>623000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>652000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>640000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>571000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>992000000</v>
+      </c>
+      <c r="C14">
         <v>902000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>766000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>730000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>952000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>860000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>737000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>708000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1002000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>834000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>625000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>706000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1020000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>913000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>806000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>745000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>909000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>851000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>786000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>799000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>636000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>764000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>749000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>763000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>570000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>647000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>714000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>641000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>835000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>733000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>752000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>716000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>701000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>696000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>541000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>595000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>495000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>651000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>640000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>571000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3.29</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.77</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.63</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3.42</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.09</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.63</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.49</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.5</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.91</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.18</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.45</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3.53</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3.17</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.8</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.59</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3.1</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.88</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.65</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.7</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2.14</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.56</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2.53</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2.63</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2.25</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2.49</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2.33</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2.44</v>
-      </c>
-      <c r="AD15">
-        <v>2.31</v>
       </c>
       <c r="AE15">
         <v>2.31</v>
       </c>
       <c r="AF15">
+        <v>2.31</v>
+      </c>
+      <c r="AG15">
         <v>2.18</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2.12</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2.1</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.61</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.74</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.41</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.86</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.82</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>3.26</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.75</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.61</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.39</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.07</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.61</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.48</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.49</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2.18</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.43</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3.51</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3.14</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.77</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2.56</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.07</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.85</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.62</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2.65</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2.1</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2.52</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2.45</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2.48</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2.58</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2.21</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2.44</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2.3</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2.4</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2.28</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2.27</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2.14</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2.09</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2.06</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.58</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.71</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.4</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1.84</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.81</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>274000000</v>
+      </c>
+      <c r="C17">
         <v>273916000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>276267000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>277074000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>280427000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>278596000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>280742000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>284102000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>286922000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>286452000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>286388000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>288569000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>288286000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>288374000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>288099000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>287917000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>295262000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>295339000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>296153000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>296400000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>299172000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>298145000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>299790000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>301771000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>304707000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>303938000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>304470000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>307928000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>321313000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>316680000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>326153000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>329154000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>335192000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>331811000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>336692000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>342232000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>350714000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>349337000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>351110000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>351873000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>277200000</v>
+      </c>
+      <c r="C18">
         <v>276382000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>278943000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>279937000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>282017000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>280405000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>282213000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>285198000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>287913000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>287227000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>286933000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>289943000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>290836000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>290892000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>290815000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>290891000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>299160000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>299087000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>300139000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>301100000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>304637000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>303751000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>305350000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>307282000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>310387000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>309728000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>310208000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>313499000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>326652000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>321938000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>331426000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>334682000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>341331000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>338181000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>342785000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>347248000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>353499000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>352918000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>352932000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>353517000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.1131</v>
+      </c>
+      <c r="C19">
         <v>0.1669</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1733</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.1633</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.1716</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1704</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.1643</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.1594</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.1788</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.168</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.152</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.1668</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.175</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.1832</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.1765</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.1758</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.1662</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.1855</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.1851</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.205</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.1929</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.2066</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.2034</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.204</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.1675</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.1941</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.1945</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.1853</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.2024</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.1889</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.1964</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.1966</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.1909</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.1906</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.192</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.1879</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.1811</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.1885</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.1883</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.1829</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.1131</v>
+      </c>
+      <c r="C20">
         <v>0.1101</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1064</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.09669999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1152</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.1129</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.104</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.0999</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1234</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1137</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.09</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1068</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.116</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1246</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.1141</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.1095</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.1121</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.1248</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.1184</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.1338</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1281</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.1402</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.139</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.1406</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.1016</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.1326</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.1321</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.1236</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.142</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.1293</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.1371</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1319</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.1276</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.1289</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.127</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.1203</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.1156</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.1242</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.1227</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.1144</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1116</v>
+      </c>
+      <c r="C21">
         <v>0.1056</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.1004</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.09039999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.11</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1061</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.0956</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.09</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1131</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1037</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.0785</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0969</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1127</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1117</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1029</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.0988</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1091</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1125</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.1056</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.1274</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1218</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1355</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1345</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1357</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.0973</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1298</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1293</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.122</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1399</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1267</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1346</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1296</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.125</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1263</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.1238</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1174</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1132</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1219</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1204</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.1113</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.0914</v>
+      </c>
+      <c r="C22">
         <v>0.09039999999999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.0834</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.07770000000000001</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.0925</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.08989999999999999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0799</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.07539999999999999</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0956</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.08840000000000001</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0675</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.08069999999999999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.09470000000000001</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.0935</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.0844</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.0804</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.0876</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.0936</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.0856</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.106</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.07679999999999999</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1008</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.09760000000000001</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1025</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.0745</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.08450000000000001</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.09180000000000001</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.0857</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1028</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.0917</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.0954</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.092</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0838</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.0898</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.07240000000000001</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.0819</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.0622</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.0842</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.08169999999999999</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.0771</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>1317000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1190000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1121000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1426000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1291000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1183000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1153000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1528000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1284000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1053000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1146000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1454000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1426000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1300000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1219000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1384000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1350000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1306000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1117000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1175000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1169000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1176000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1157000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>891000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1124000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1142000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1040000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1274000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1151000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1200000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1151000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1187000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1123000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1076000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>999000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1053000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1088000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1084000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>989000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1227000000</v>
+      </c>
+      <c r="C24">
         <v>1098000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>978000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>908000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1186000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1080000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>959000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>938000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1293000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1072000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>834000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>934000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1250000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1216000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1090000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1014000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1163000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1135000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1088000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1008000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1060000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1063000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1067000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1046000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>778000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1015000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1027000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>924000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1153000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1034000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1081000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1027000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1067000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>999000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>949000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>874000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>920000000</v>
-      </c>
-      <c r="AL24">
-        <v>961000000</v>
       </c>
       <c r="AM24">
         <v>961000000</v>
       </c>
       <c r="AN24">
+        <v>961000000</v>
+      </c>
+      <c r="AO24">
         <v>847000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>992000000</v>
+      </c>
+      <c r="C25">
         <v>902000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>766000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>730000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>952000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>860000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>737000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>708000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1002000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>834000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>625000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>706000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1020000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>913000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>806000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>745000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>909000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>864000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>786000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>799000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>636000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>764000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>749000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>763000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>580000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>731000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>714000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>654000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>835000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>733000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>752000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>716000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>737000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>694000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>646000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>596000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>623000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>652000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>640000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>571000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="R26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26">
         <v>-13000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-10000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-84000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-13000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-36000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>2000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-105000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-1000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-128000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-1000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>992000000</v>
+      </c>
+      <c r="C27">
         <v>902000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>766000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>730000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>952000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>860000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>737000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>708000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1002000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>834000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>625000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>706000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1020000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>913000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>806000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>745000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>909000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>851000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>786000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>799000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>636000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>764000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>749000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>763000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>570000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>647000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>714000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>641000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>835000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>733000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>752000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>716000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>701000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>696000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>541000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>595000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>495000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>651000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>640000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>571000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>3.6204</v>
+      </c>
+      <c r="C28">
         <v>3.293</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.7727</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.6347</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3.4103</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3.0869</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.6252</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.4921</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3.4975</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2.9115</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2.1824</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.4466</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3.534</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3.166</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.7976</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2.5876</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3.1003</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.92</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.654</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2.6957</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2.1432</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2.56</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2.4984</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2.5284</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.9249</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2.4</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2.3451</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2.12</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2.6543</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2.31</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2.3057</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2.18</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2.22</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2.09</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1.92</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1.74</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1.7873</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1.86</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1.82</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1.6227</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>3.5786</v>
+      </c>
+      <c r="C29">
         <v>3.2636</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.7461</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.6077</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3.388</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3.067</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.6115</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.4825</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3.4831</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2.9036</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.1782</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2.435</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>3.508</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3.1386</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.7715</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2.5611</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3.0576</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.89</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2.6188</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2.6536</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2.104</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2.52</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>2.4529</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>2.4831</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.8983</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2.36</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>2.3017</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2.08</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>2.601</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2.28</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2.269</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>2.14</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>2.19</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>2.05</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.88</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1.71</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1.7648</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.84</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1.81</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1.6152</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30">
         <v>-0.04</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.04</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-0.27</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-0.04</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.1171</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.01</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-0.3</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-0.0029</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-0.3572</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-0.0028</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31">
         <v>-0.04</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-0.04</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-0.27</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-0.04</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-0.1071</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.01</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-0.31</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-0.0029</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-0.3671</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-0.0029</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>3.6204</v>
+      </c>
+      <c r="C32">
         <v>3.293</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.7727</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.6347</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.4103</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3.0869</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.6252</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.4921</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.4975</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2.9115</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2.1824</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2.4466</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>3.534</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>3.166</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2.7976</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2.5876</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3.0978</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.8814</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.654</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2.6957</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2.1442</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2.5625</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2.4984</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2.5284</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.8855</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2.1287</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2.3451</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2.0817</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2.6532</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2.3146</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2.3057</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2.1753</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2.1139</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2.0976</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1.6068</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1.7386</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1.4115</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1.8635</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1.8228</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1.6227</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>3.5786</v>
+      </c>
+      <c r="C33">
         <v>3.2636</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2.7461</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.6077</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3.388</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3.067</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2.6115</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.4825</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3.4831</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2.9036</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2.1782</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2.435</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>3.508</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>3.1386</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2.7715</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.5611</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>3.0636</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.8453</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2.6188</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2.6536</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2.1077</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2.5152</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2.4529</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2.4831</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1.8512</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>2.0889</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2.3017</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>2.0447</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>2.6091</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>2.2768</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>2.269</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>2.1393</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2.0712</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2.0581</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1.5782</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>1.7135</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1.3944</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1.8446</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1.8134</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1.6152</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>276400000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>278900000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>279900000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>280600000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>280400000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>282200000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>285200000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>287100000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>287200000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>286900000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>289900000</v>
-      </c>
-      <c r="M34">
-        <v>290900000</v>
       </c>
       <c r="N34">
         <v>290900000</v>
       </c>
       <c r="O34">
+        <v>290900000</v>
+      </c>
+      <c r="P34">
         <v>290800000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>290900000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>296400000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>299100000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>300100000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>301100000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>302400000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>303800000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>305300000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>307300000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>308500000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>309700000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>310200000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>312300000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>318300000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>321900000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>331400000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>334700000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>335800000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>338200000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>342800000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>347200000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>354600000</v>
-      </c>
-      <c r="AL34">
-        <v>352900000</v>
       </c>
       <c r="AM34">
         <v>352900000</v>
       </c>
       <c r="AN34">
+        <v>352900000</v>
+      </c>
+      <c r="AO34">
         <v>353500000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0.132</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.1295</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1194</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.1386</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.1349</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.1283</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.1228</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.1458</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.1361</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.1137</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.131</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.135</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.1461</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.1361</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.1316</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.1334</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.1484</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.1422</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.1482</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.142</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.1542</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.1532</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.1555</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.1164</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.1468</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.1469</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.1391</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.1569</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.144</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.1522</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.1479</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.142</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.1449</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.144</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.1375</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.1323</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.1407</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.1384</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.1336</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>0.0617</v>
+      </c>
+      <c r="C36">
         <v>0.1286</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.0717</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2095</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.1634</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.1537</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.1209</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.0003</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.2444</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.1187</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.091</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-0.0761</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.2222</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.1118</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.0305</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-0.0858</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.1992</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.08690000000000001</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.0857</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-0.0658</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.2409</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.115</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0621</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.0716</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.1033</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.06519999999999999</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>0.0506</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.06419999999999999</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.0415</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.1047</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>0.0873</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>0.09569999999999999</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.0036</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.3231</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.1167</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.0581</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>0.1958</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>0.0602</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.07439999999999999</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.06809999999999999</v>
       </c>
     </row>
